--- a/Natursteinnetriebe-Bad-Wünneberg-Umgebung.xlsx
+++ b/Natursteinnetriebe-Bad-Wünneberg-Umgebung.xlsx
@@ -45,19 +45,23 @@
       <table:table table:name="Tabelle1" table:style-name="ta1">
         <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Steinmetze</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Küchenstudios</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Treppenbauer</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>http://www.coritzius-kg.de/</text:p>
           </table:table-cell>
-          <table:table-cell/>
+          <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -69,11 +73,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.3">
   <office:meta>
-    <dc:date>2024-03-11T20:34:07.199000000</dc:date>
-    <meta:editing-duration>PT14M25S</meta:editing-duration>
-    <meta:editing-cycles>2</meta:editing-cycles>
+    <dc:date>2024-03-11T20:50:18.662000000</dc:date>
+    <meta:editing-duration>PT14M35S</meta:editing-duration>
+    <meta:editing-cycles>3</meta:editing-cycles>
     <meta:generator>LibreOffice/7.4.5.1$Windows_X86_64 LibreOffice_project/9c0871452b3918c1019dde9bfac75448afc4b57f</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="3" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="4" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -84,15 +88,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">6962</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">9220</config:config-item>
       <config:config-item config:name="VisibleAreaHeight" config:type="int">903</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Tabelle1">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -152,9 +156,9 @@
       <config:config-item config:name="IsSnapToRaster" config:type="boolean">false</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string"/>
+      <config:config-item config:name="PrinterName" config:type="string">Samsung ML-1670 Series (USB001)</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">6Sj+/1NhbXN1bmcgTUwtMTY3MCBTZXJpZXMgKFVTQjAwMSkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU2Ftc3VuZyBVbml2ZXJzYWwgUHJpbnQgRHJpdmVyIAAWAAEACigAAAAAAAAEAAhSAAAEdAAAM1ROVwAAAAAKAFMAYQBtAHMAdQBuAGcAIABNAEwALQAxADYANwAwACAAUwBlAHIAaQBlAHMAIAAoAFUAUwBCADAAMAAxAAAAAAABBAAE3AAkJw/XgQMBAAkAmgs0CGQAAQAHAFgCAAABAAAAAwABAEEANAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQAAAAIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABTRUNEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB4AC0AAABBAHIAaQBhAGwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAAAAAACAgIAAAACQAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAVQBuAHQAaQB0AGwAZQBkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMAA6ADAAOgAwADoAMAA6ADAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAZAAAAAIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAAWAIAADIAMgAyADIAMgAyADIAMgAyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQQA0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADwAAAAAAAAAAAWQAZAABAGQAAGQAAGQAAGQAAAAAAgAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAAQAAAAAAAAAAAQEAAQAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEBAQEBAAAAAAAAAAEBAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAcAAAAJAAAHAAAACQAABwAAAAkAAAAABwA0CJoLNAiaCwAAAAAAQABAAAAABQYEADQImgsBAAIAAAA0CJoLASoHYgABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAAAAgICAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEEAcgBpAGEAbAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEIAIyMjAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQBzAHAAZAAyAGkAAAAAAAAAAAAAKAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1000</config:config-item>

--- a/Natursteinnetriebe-Bad-Wünneberg-Umgebung.xlsx
+++ b/Natursteinnetriebe-Bad-Wünneberg-Umgebung.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nando\f\download\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116F1E55-010E-49B6-B845-397A687A5CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,28 +25,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">Steinmetze</t>
+    <t>Steinmetze</t>
   </si>
   <si>
-    <t xml:space="preserve">Küchenstudios</t>
+    <t>Küchenstudios</t>
   </si>
   <si>
-    <t xml:space="preserve">Treppenbauer</t>
+    <t>Treppenbauer</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.coritzius-kg.de/</t>
+    <t>http://www.coritzius-kg.de/</t>
+  </si>
+  <si>
+    <t>Lager Coritzius</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -49,21 +54,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="2"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,13 +68,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -86,49 +88,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -187,49 +159,382 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.33"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
